--- a/INTLINE/data/924/NBS/Producer Price Indices for Industrial Products by _Category.xlsx
+++ b/INTLINE/data/924/NBS/Producer Price Indices for Industrial Products by _Category.xlsx
@@ -1,297 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="NBS" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NBS" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
-  <si>
-    <t>2021</t>
-  </si>
-  <si>
-    <t>2020</t>
-  </si>
-  <si>
-    <t>2019</t>
-  </si>
-  <si>
-    <t>2018</t>
-  </si>
-  <si>
-    <t>2017</t>
-  </si>
-  <si>
-    <t>2016</t>
-  </si>
-  <si>
-    <t>2015</t>
-  </si>
-  <si>
-    <t>2014</t>
-  </si>
-  <si>
-    <t>2013</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>2000</t>
-  </si>
-  <si>
-    <t>1999</t>
-  </si>
-  <si>
-    <t>1998</t>
-  </si>
-  <si>
-    <t>1997</t>
-  </si>
-  <si>
-    <t>1996</t>
-  </si>
-  <si>
-    <t>1995</t>
-  </si>
-  <si>
-    <t>1994</t>
-  </si>
-  <si>
-    <t>1993</t>
-  </si>
-  <si>
-    <t>1992</t>
-  </si>
-  <si>
-    <t>1991</t>
-  </si>
-  <si>
-    <t>1990</t>
-  </si>
-  <si>
-    <t>1989</t>
-  </si>
-  <si>
-    <t>1988</t>
-  </si>
-  <si>
-    <t>1987</t>
-  </si>
-  <si>
-    <t>1986</t>
-  </si>
-  <si>
-    <t>1985</t>
-  </si>
-  <si>
-    <t>1984</t>
-  </si>
-  <si>
-    <t>1983</t>
-  </si>
-  <si>
-    <t>1982</t>
-  </si>
-  <si>
-    <t>1981</t>
-  </si>
-  <si>
-    <t>1980</t>
-  </si>
-  <si>
-    <t>1979</t>
-  </si>
-  <si>
-    <t>1978</t>
-  </si>
-  <si>
-    <t>1977</t>
-  </si>
-  <si>
-    <t>1976</t>
-  </si>
-  <si>
-    <t>1975</t>
-  </si>
-  <si>
-    <t>1974</t>
-  </si>
-  <si>
-    <t>1973</t>
-  </si>
-  <si>
-    <t>1972</t>
-  </si>
-  <si>
-    <t>1971</t>
-  </si>
-  <si>
-    <t>1970</t>
-  </si>
-  <si>
-    <t>1969</t>
-  </si>
-  <si>
-    <t>1968</t>
-  </si>
-  <si>
-    <t>1967</t>
-  </si>
-  <si>
-    <t>1966</t>
-  </si>
-  <si>
-    <t>1965</t>
-  </si>
-  <si>
-    <t>1964</t>
-  </si>
-  <si>
-    <t>1963</t>
-  </si>
-  <si>
-    <t>1962</t>
-  </si>
-  <si>
-    <t>1961</t>
-  </si>
-  <si>
-    <t>1960</t>
-  </si>
-  <si>
-    <t>1959</t>
-  </si>
-  <si>
-    <t>1958</t>
-  </si>
-  <si>
-    <t>1957</t>
-  </si>
-  <si>
-    <t>1956</t>
-  </si>
-  <si>
-    <t>1955</t>
-  </si>
-  <si>
-    <t>1954</t>
-  </si>
-  <si>
-    <t>1953</t>
-  </si>
-  <si>
-    <t>1952</t>
-  </si>
-  <si>
-    <t>1951</t>
-  </si>
-  <si>
-    <t>1950</t>
-  </si>
-  <si>
-    <t>1949</t>
-  </si>
-  <si>
-    <t>Indicators</t>
-  </si>
-  <si>
-    <t>Producer Price Indices for Industrial Products (preceding year=100)</t>
-  </si>
-  <si>
-    <t>Producer Price Indices for Industrial Products (preceding year=100), Means of Production</t>
-  </si>
-  <si>
-    <t>Producer Price Indices for Industrial Products (preceding year=100), Mining and Quarrying Industry</t>
-  </si>
-  <si>
-    <t>Producer Price Indices for Industrial Products (preceding year=100), Raw Materials Industry</t>
-  </si>
-  <si>
-    <t>Producer Price Indices for Industrial Products (preceding year=100), Processing Industry</t>
-  </si>
-  <si>
-    <t>Producer Price Indices for Industrial Products (preceding year=100), Consumer Goods</t>
-  </si>
-  <si>
-    <t>Producer Price Indices for Industrial Products (preceding year=100), Food</t>
-  </si>
-  <si>
-    <t>Producer Price Indices for Industrial Products (preceding year=100), Clothing</t>
-  </si>
-  <si>
-    <t>Producer Price Indices for Industrial Products (preceding year=100), Articles for Daily Use</t>
-  </si>
-  <si>
-    <t>Producer Price Indices for Industrial Products (preceding year=100), Durable Consumer Goods</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -306,18 +46,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -325,15 +57,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -622,1311 +353,1892 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:BV11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:74">
-      <c r="A1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="BF1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="BG1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="BH1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="BI1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="BJ1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="BK1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="BL1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="BM1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="BN1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="BO1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="BP1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="BQ1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="BR1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="BS1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="BT1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BU1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="BV1" s="1" t="s">
-        <v>72</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Indicators</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>2011</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>2004</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>2003</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>2002</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>2001</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>1999</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>1998</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>1997</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>1996</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>1995</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>1994</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>1993</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>1992</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>1991</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>1990</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>1989</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>1988</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>1987</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>1986</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>1985</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>1983</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>1982</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>1981</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>1980</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>1979</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>1978</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>1977</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>1976</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>1975</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>1974</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>1973</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>1972</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>1971</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>1970</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>1969</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>1968</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>1967</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>1966</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>1965</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>1964</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>1963</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>1962</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>1961</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>1960</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>1959</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>1958</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>1957</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>1956</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>1955</t>
+        </is>
+      </c>
+      <c r="BQ1" s="1" t="inlineStr">
+        <is>
+          <t>1954</t>
+        </is>
+      </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>1953</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>1952</t>
+        </is>
+      </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>1951</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>1950</t>
+        </is>
+      </c>
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>1949</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:74">
-      <c r="A2" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B2">
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Producer Price Indices for Industrial Products (preceding year=100)</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>108.1</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>98.2</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>99.7</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>103.5</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="n">
         <v>106.3</v>
       </c>
-      <c r="G2">
+      <c r="G2" t="n">
         <v>98.59999999999999</v>
       </c>
-      <c r="H2">
+      <c r="H2" t="n">
         <v>94.8</v>
       </c>
-      <c r="I2">
+      <c r="I2" t="n">
         <v>98.09999999999999</v>
       </c>
-      <c r="J2">
+      <c r="J2" t="n">
         <v>98.09999999999999</v>
       </c>
-      <c r="K2">
+      <c r="K2" t="n">
         <v>98.3</v>
       </c>
-      <c r="L2">
+      <c r="L2" t="n">
         <v>106</v>
       </c>
-      <c r="M2">
+      <c r="M2" t="n">
         <v>105.5</v>
       </c>
-      <c r="N2">
+      <c r="N2" t="n">
         <v>94.59999999999999</v>
       </c>
-      <c r="O2">
+      <c r="O2" t="n">
         <v>106.9</v>
       </c>
-      <c r="P2">
+      <c r="P2" t="n">
         <v>103.1</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" t="n">
         <v>103</v>
       </c>
-      <c r="R2">
+      <c r="R2" t="n">
         <v>104.9</v>
       </c>
-      <c r="S2">
+      <c r="S2" t="n">
         <v>106.1</v>
       </c>
-      <c r="T2">
+      <c r="T2" t="n">
         <v>102.3</v>
       </c>
-      <c r="U2">
+      <c r="U2" t="n">
         <v>97.8</v>
       </c>
-      <c r="V2">
+      <c r="V2" t="n">
         <v>98.7</v>
       </c>
-      <c r="W2">
+      <c r="W2" t="n">
         <v>102.8</v>
       </c>
-      <c r="X2">
+      <c r="X2" t="n">
         <v>97.59999999999999</v>
       </c>
-      <c r="Y2">
+      <c r="Y2" t="n">
         <v>95.90000000000001</v>
       </c>
-      <c r="Z2">
+      <c r="Z2" t="n">
         <v>99.7</v>
       </c>
-      <c r="AA2">
+      <c r="AA2" t="n">
         <v>102.9</v>
       </c>
-      <c r="AB2">
+      <c r="AB2" t="n">
         <v>114.9</v>
       </c>
-      <c r="AC2">
+      <c r="AC2" t="n">
         <v>119.5</v>
       </c>
-      <c r="AD2">
+      <c r="AD2" t="n">
         <v>124</v>
       </c>
-      <c r="AE2">
+      <c r="AE2" t="n">
         <v>106.8</v>
       </c>
-      <c r="AF2">
+      <c r="AF2" t="n">
         <v>106.2</v>
       </c>
-      <c r="AG2">
+      <c r="AG2" t="n">
         <v>104.1</v>
       </c>
-      <c r="AH2">
+      <c r="AH2" t="n">
         <v>118.6</v>
       </c>
-      <c r="AI2">
+      <c r="AI2" t="n">
         <v>115</v>
       </c>
-      <c r="AJ2">
+      <c r="AJ2" t="n">
         <v>107.9</v>
       </c>
-      <c r="AK2">
+      <c r="AK2" t="n">
         <v>103.8</v>
       </c>
-      <c r="AL2">
+      <c r="AL2" t="n">
         <v>108.7</v>
       </c>
-      <c r="AM2">
+      <c r="AM2" t="n">
         <v>101.4</v>
       </c>
-      <c r="AN2">
+      <c r="AN2" t="n">
         <v>99.90000000000001</v>
       </c>
-      <c r="AO2">
+      <c r="AO2" t="n">
         <v>99.8</v>
       </c>
-      <c r="AP2">
+      <c r="AP2" t="n">
         <v>100.2</v>
       </c>
-      <c r="AQ2">
+      <c r="AQ2" t="n">
         <v>100.5</v>
       </c>
-      <c r="AR2">
+      <c r="AR2" t="n">
         <v>101.5</v>
       </c>
-      <c r="AS2">
+      <c r="AS2" t="n">
         <v>100.1</v>
       </c>
+      <c r="AT2" t="inlineStr"/>
+      <c r="AU2" t="inlineStr"/>
+      <c r="AV2" t="inlineStr"/>
+      <c r="AW2" t="inlineStr"/>
+      <c r="AX2" t="inlineStr"/>
+      <c r="AY2" t="inlineStr"/>
+      <c r="AZ2" t="inlineStr"/>
+      <c r="BA2" t="inlineStr"/>
+      <c r="BB2" t="inlineStr"/>
+      <c r="BC2" t="inlineStr"/>
+      <c r="BD2" t="inlineStr"/>
+      <c r="BE2" t="inlineStr"/>
+      <c r="BF2" t="inlineStr"/>
+      <c r="BG2" t="inlineStr"/>
+      <c r="BH2" t="inlineStr"/>
+      <c r="BI2" t="inlineStr"/>
+      <c r="BJ2" t="inlineStr"/>
+      <c r="BK2" t="inlineStr"/>
+      <c r="BL2" t="inlineStr"/>
+      <c r="BM2" t="inlineStr"/>
+      <c r="BN2" t="inlineStr"/>
+      <c r="BO2" t="inlineStr"/>
+      <c r="BP2" t="inlineStr"/>
+      <c r="BQ2" t="inlineStr"/>
+      <c r="BR2" t="inlineStr"/>
+      <c r="BS2" t="inlineStr"/>
+      <c r="BT2" t="inlineStr"/>
+      <c r="BU2" t="inlineStr"/>
+      <c r="BV2" t="inlineStr"/>
     </row>
-    <row r="3" spans="1:74">
-      <c r="A3" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C3">
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Producer Price Indices for Industrial Products (preceding year=100), Means of Production</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>110.7</v>
+      </c>
+      <c r="C3" t="n">
         <v>97.3</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="n">
         <v>99.2</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>104.6</v>
       </c>
-      <c r="F3">
+      <c r="F3" t="n">
         <v>108.3</v>
       </c>
-      <c r="G3">
+      <c r="G3" t="n">
         <v>98.2</v>
       </c>
-      <c r="H3">
+      <c r="H3" t="n">
         <v>93.3</v>
       </c>
-      <c r="I3">
+      <c r="I3" t="n">
         <v>97.5</v>
       </c>
-      <c r="J3">
+      <c r="J3" t="n">
         <v>97.40000000000001</v>
       </c>
-      <c r="K3">
+      <c r="K3" t="n">
         <v>97.5</v>
       </c>
-      <c r="L3">
+      <c r="L3" t="n">
         <v>106.6</v>
       </c>
-      <c r="M3">
+      <c r="M3" t="n">
         <v>106.6</v>
       </c>
-      <c r="N3">
+      <c r="N3" t="n">
         <v>93.3</v>
       </c>
-      <c r="O3">
+      <c r="O3" t="n">
         <v>107.7</v>
       </c>
-      <c r="P3">
+      <c r="P3" t="n">
         <v>103.2</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" t="n">
         <v>103.9</v>
       </c>
-      <c r="R3">
+      <c r="R3" t="n">
         <v>106.8</v>
       </c>
-      <c r="S3">
+      <c r="S3" t="n">
         <v>107.8</v>
       </c>
-      <c r="T3">
+      <c r="T3" t="n">
         <v>103.6</v>
       </c>
-      <c r="U3">
+      <c r="U3" t="n">
         <v>97.7</v>
       </c>
-      <c r="V3">
+      <c r="V3" t="n">
         <v>98.8</v>
       </c>
-      <c r="W3">
+      <c r="W3" t="n">
         <v>105.1</v>
       </c>
-      <c r="X3">
+      <c r="X3" t="n">
         <v>98.3</v>
       </c>
-      <c r="Y3">
+      <c r="Y3" t="n">
         <v>95.40000000000001</v>
       </c>
-      <c r="Z3">
+      <c r="Z3" t="n">
         <v>99.7</v>
       </c>
-      <c r="AA3">
+      <c r="AA3" t="n">
         <v>103.5</v>
       </c>
-      <c r="AB3">
+      <c r="AB3" t="n">
         <v>113.6</v>
       </c>
-      <c r="AC3">
+      <c r="AC3" t="n">
         <v>116.7</v>
       </c>
-      <c r="AD3">
+      <c r="AD3" t="n">
         <v>133.7</v>
       </c>
-      <c r="AE3">
+      <c r="AE3" t="n">
         <v>109.3</v>
       </c>
-      <c r="AF3">
+      <c r="AF3" t="n">
         <v>104.4</v>
       </c>
-      <c r="AG3">
+      <c r="AG3" t="n">
         <v>104.4</v>
       </c>
-      <c r="AH3">
+      <c r="AH3" t="n">
         <v>118.9</v>
       </c>
-      <c r="AI3">
+      <c r="AI3" t="n">
         <v>113.7</v>
       </c>
+      <c r="AJ3" t="inlineStr"/>
+      <c r="AK3" t="inlineStr"/>
+      <c r="AL3" t="inlineStr"/>
+      <c r="AM3" t="inlineStr"/>
+      <c r="AN3" t="inlineStr"/>
+      <c r="AO3" t="inlineStr"/>
+      <c r="AP3" t="inlineStr"/>
+      <c r="AQ3" t="inlineStr"/>
+      <c r="AR3" t="inlineStr"/>
+      <c r="AS3" t="inlineStr"/>
+      <c r="AT3" t="inlineStr"/>
+      <c r="AU3" t="inlineStr"/>
+      <c r="AV3" t="inlineStr"/>
+      <c r="AW3" t="inlineStr"/>
+      <c r="AX3" t="inlineStr"/>
+      <c r="AY3" t="inlineStr"/>
+      <c r="AZ3" t="inlineStr"/>
+      <c r="BA3" t="inlineStr"/>
+      <c r="BB3" t="inlineStr"/>
+      <c r="BC3" t="inlineStr"/>
+      <c r="BD3" t="inlineStr"/>
+      <c r="BE3" t="inlineStr"/>
+      <c r="BF3" t="inlineStr"/>
+      <c r="BG3" t="inlineStr"/>
+      <c r="BH3" t="inlineStr"/>
+      <c r="BI3" t="inlineStr"/>
+      <c r="BJ3" t="inlineStr"/>
+      <c r="BK3" t="inlineStr"/>
+      <c r="BL3" t="inlineStr"/>
+      <c r="BM3" t="inlineStr"/>
+      <c r="BN3" t="inlineStr"/>
+      <c r="BO3" t="inlineStr"/>
+      <c r="BP3" t="inlineStr"/>
+      <c r="BQ3" t="inlineStr"/>
+      <c r="BR3" t="inlineStr"/>
+      <c r="BS3" t="inlineStr"/>
+      <c r="BT3" t="inlineStr"/>
+      <c r="BU3" t="inlineStr"/>
+      <c r="BV3" t="inlineStr"/>
     </row>
-    <row r="4" spans="1:74">
-      <c r="A4" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C4">
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Producer Price Indices for Industrial Products (preceding year=100), Mining and Quarrying Industry</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>134.4</v>
+      </c>
+      <c r="C4" t="n">
         <v>94.8</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="n">
         <v>102.4</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="n">
         <v>108.8</v>
       </c>
-      <c r="F4">
+      <c r="F4" t="n">
         <v>120.7</v>
       </c>
-      <c r="G4">
+      <c r="G4" t="n">
         <v>95.40000000000001</v>
       </c>
-      <c r="H4">
+      <c r="H4" t="n">
         <v>80.3</v>
       </c>
-      <c r="I4">
+      <c r="I4" t="n">
         <v>93.5</v>
       </c>
-      <c r="J4">
+      <c r="J4" t="n">
         <v>94.3</v>
       </c>
-      <c r="K4">
+      <c r="K4" t="n">
         <v>97.59999999999999</v>
       </c>
-      <c r="L4">
+      <c r="L4" t="n">
         <v>115.4</v>
       </c>
-      <c r="M4">
+      <c r="M4" t="n">
         <v>122.2</v>
       </c>
-      <c r="N4">
+      <c r="N4" t="n">
         <v>84.2</v>
       </c>
-      <c r="O4">
+      <c r="O4" t="n">
         <v>123.2</v>
       </c>
-      <c r="P4">
+      <c r="P4" t="n">
         <v>103.8</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" t="n">
         <v>114.1</v>
       </c>
-      <c r="R4">
+      <c r="R4" t="n">
         <v>125.8</v>
       </c>
-      <c r="S4">
+      <c r="S4" t="n">
         <v>118.8</v>
       </c>
-      <c r="T4">
+      <c r="T4" t="n">
         <v>113.3</v>
       </c>
-      <c r="U4">
+      <c r="U4" t="n">
         <v>101.9</v>
       </c>
-      <c r="V4">
+      <c r="V4" t="n">
         <v>100.1</v>
       </c>
-      <c r="W4">
+      <c r="W4" t="n">
         <v>124.9</v>
       </c>
-      <c r="X4">
+      <c r="X4" t="n">
         <v>104.5</v>
       </c>
-      <c r="Y4">
+      <c r="Y4" t="n">
         <v>98.40000000000001</v>
       </c>
-      <c r="Z4">
+      <c r="Z4" t="n">
         <v>105.5</v>
       </c>
-      <c r="AA4">
+      <c r="AA4" t="n">
         <v>108.9</v>
       </c>
-      <c r="AB4">
+      <c r="AB4" t="n">
         <v>119.7</v>
       </c>
-      <c r="AC4">
+      <c r="AC4" t="n">
         <v>133.1</v>
       </c>
-      <c r="AD4">
+      <c r="AD4" t="n">
         <v>146.5</v>
       </c>
-      <c r="AE4">
+      <c r="AE4" t="n">
         <v>112.6</v>
       </c>
-      <c r="AF4">
+      <c r="AF4" t="n">
         <v>107.9</v>
       </c>
-      <c r="AG4">
+      <c r="AG4" t="n">
         <v>107.9</v>
       </c>
-      <c r="AH4">
+      <c r="AH4" t="n">
         <v>114.2</v>
       </c>
-      <c r="AI4">
+      <c r="AI4" t="n">
         <v>109.3</v>
       </c>
+      <c r="AJ4" t="inlineStr"/>
+      <c r="AK4" t="inlineStr"/>
+      <c r="AL4" t="inlineStr"/>
+      <c r="AM4" t="inlineStr"/>
+      <c r="AN4" t="inlineStr"/>
+      <c r="AO4" t="inlineStr"/>
+      <c r="AP4" t="inlineStr"/>
+      <c r="AQ4" t="inlineStr"/>
+      <c r="AR4" t="inlineStr"/>
+      <c r="AS4" t="inlineStr"/>
+      <c r="AT4" t="inlineStr"/>
+      <c r="AU4" t="inlineStr"/>
+      <c r="AV4" t="inlineStr"/>
+      <c r="AW4" t="inlineStr"/>
+      <c r="AX4" t="inlineStr"/>
+      <c r="AY4" t="inlineStr"/>
+      <c r="AZ4" t="inlineStr"/>
+      <c r="BA4" t="inlineStr"/>
+      <c r="BB4" t="inlineStr"/>
+      <c r="BC4" t="inlineStr"/>
+      <c r="BD4" t="inlineStr"/>
+      <c r="BE4" t="inlineStr"/>
+      <c r="BF4" t="inlineStr"/>
+      <c r="BG4" t="inlineStr"/>
+      <c r="BH4" t="inlineStr"/>
+      <c r="BI4" t="inlineStr"/>
+      <c r="BJ4" t="inlineStr"/>
+      <c r="BK4" t="inlineStr"/>
+      <c r="BL4" t="inlineStr"/>
+      <c r="BM4" t="inlineStr"/>
+      <c r="BN4" t="inlineStr"/>
+      <c r="BO4" t="inlineStr"/>
+      <c r="BP4" t="inlineStr"/>
+      <c r="BQ4" t="inlineStr"/>
+      <c r="BR4" t="inlineStr"/>
+      <c r="BS4" t="inlineStr"/>
+      <c r="BT4" t="inlineStr"/>
+      <c r="BU4" t="inlineStr"/>
+      <c r="BV4" t="inlineStr"/>
     </row>
-    <row r="5" spans="1:74">
-      <c r="A5" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C5">
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Producer Price Indices for Industrial Products (preceding year=100), Raw Materials Industry</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>115.8</v>
+      </c>
+      <c r="C5" t="n">
         <v>94.40000000000001</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="n">
         <v>97.40000000000001</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="n">
         <v>106.3</v>
       </c>
-      <c r="F5">
+      <c r="F5" t="n">
         <v>111.5</v>
       </c>
-      <c r="G5">
+      <c r="G5" t="n">
         <v>96.7</v>
       </c>
-      <c r="H5">
+      <c r="H5" t="n">
         <v>90.5</v>
       </c>
-      <c r="I5">
+      <c r="I5" t="n">
         <v>97</v>
       </c>
-      <c r="J5">
+      <c r="J5" t="n">
         <v>96.90000000000001</v>
       </c>
-      <c r="K5">
+      <c r="K5" t="n">
         <v>98</v>
       </c>
-      <c r="L5">
+      <c r="L5" t="n">
         <v>109.2</v>
       </c>
-      <c r="M5">
+      <c r="M5" t="n">
         <v>110.1</v>
       </c>
-      <c r="N5">
+      <c r="N5" t="n">
         <v>91.90000000000001</v>
       </c>
-      <c r="O5">
+      <c r="O5" t="n">
         <v>108.9</v>
       </c>
-      <c r="P5">
+      <c r="P5" t="n">
         <v>105.6</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" t="n">
         <v>106.6</v>
       </c>
-      <c r="R5">
+      <c r="R5" t="n">
         <v>109.8</v>
       </c>
-      <c r="S5">
+      <c r="S5" t="n">
         <v>110.2</v>
       </c>
-      <c r="T5">
+      <c r="T5" t="n">
         <v>106.7</v>
       </c>
-      <c r="U5">
+      <c r="U5" t="n">
         <v>98</v>
       </c>
-      <c r="V5">
+      <c r="V5" t="n">
         <v>99.7</v>
       </c>
-      <c r="W5">
+      <c r="W5" t="n">
         <v>108.4</v>
       </c>
-      <c r="X5">
+      <c r="X5" t="n">
         <v>98.2</v>
       </c>
-      <c r="Y5">
+      <c r="Y5" t="n">
         <v>93.40000000000001</v>
       </c>
-      <c r="Z5">
+      <c r="Z5" t="n">
         <v>100</v>
       </c>
-      <c r="AA5">
+      <c r="AA5" t="n">
         <v>101.7</v>
       </c>
-      <c r="AB5">
+      <c r="AB5" t="n">
         <v>113.6</v>
       </c>
-      <c r="AC5">
+      <c r="AC5" t="n">
         <v>117.9</v>
       </c>
-      <c r="AD5">
+      <c r="AD5" t="n">
         <v>140.4</v>
       </c>
-      <c r="AE5">
+      <c r="AE5" t="n">
         <v>110.2</v>
       </c>
-      <c r="AF5">
+      <c r="AF5" t="n">
         <v>105.9</v>
       </c>
-      <c r="AG5">
+      <c r="AG5" t="n">
         <v>105.9</v>
       </c>
-      <c r="AH5">
+      <c r="AH5" t="n">
         <v>116.4</v>
       </c>
-      <c r="AI5">
+      <c r="AI5" t="n">
         <v>113.5</v>
       </c>
+      <c r="AJ5" t="inlineStr"/>
+      <c r="AK5" t="inlineStr"/>
+      <c r="AL5" t="inlineStr"/>
+      <c r="AM5" t="inlineStr"/>
+      <c r="AN5" t="inlineStr"/>
+      <c r="AO5" t="inlineStr"/>
+      <c r="AP5" t="inlineStr"/>
+      <c r="AQ5" t="inlineStr"/>
+      <c r="AR5" t="inlineStr"/>
+      <c r="AS5" t="inlineStr"/>
+      <c r="AT5" t="inlineStr"/>
+      <c r="AU5" t="inlineStr"/>
+      <c r="AV5" t="inlineStr"/>
+      <c r="AW5" t="inlineStr"/>
+      <c r="AX5" t="inlineStr"/>
+      <c r="AY5" t="inlineStr"/>
+      <c r="AZ5" t="inlineStr"/>
+      <c r="BA5" t="inlineStr"/>
+      <c r="BB5" t="inlineStr"/>
+      <c r="BC5" t="inlineStr"/>
+      <c r="BD5" t="inlineStr"/>
+      <c r="BE5" t="inlineStr"/>
+      <c r="BF5" t="inlineStr"/>
+      <c r="BG5" t="inlineStr"/>
+      <c r="BH5" t="inlineStr"/>
+      <c r="BI5" t="inlineStr"/>
+      <c r="BJ5" t="inlineStr"/>
+      <c r="BK5" t="inlineStr"/>
+      <c r="BL5" t="inlineStr"/>
+      <c r="BM5" t="inlineStr"/>
+      <c r="BN5" t="inlineStr"/>
+      <c r="BO5" t="inlineStr"/>
+      <c r="BP5" t="inlineStr"/>
+      <c r="BQ5" t="inlineStr"/>
+      <c r="BR5" t="inlineStr"/>
+      <c r="BS5" t="inlineStr"/>
+      <c r="BT5" t="inlineStr"/>
+      <c r="BU5" t="inlineStr"/>
+      <c r="BV5" t="inlineStr"/>
     </row>
-    <row r="6" spans="1:74">
-      <c r="A6" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C6">
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Producer Price Indices for Industrial Products (preceding year=100), Processing Industry</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>106.6</v>
+      </c>
+      <c r="C6" t="n">
         <v>98.7</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="n">
         <v>99.7</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="n">
         <v>103.5</v>
       </c>
-      <c r="F6">
+      <c r="F6" t="n">
         <v>106.1</v>
       </c>
-      <c r="G6">
+      <c r="G6" t="n">
         <v>99</v>
       </c>
-      <c r="H6">
+      <c r="H6" t="n">
         <v>95.7</v>
       </c>
-      <c r="I6">
+      <c r="I6" t="n">
         <v>98.2</v>
       </c>
-      <c r="J6">
+      <c r="J6" t="n">
         <v>98</v>
       </c>
-      <c r="K6">
+      <c r="K6" t="n">
         <v>97.3</v>
       </c>
-      <c r="L6">
+      <c r="L6" t="n">
         <v>104.6</v>
       </c>
-      <c r="M6">
+      <c r="M6" t="n">
         <v>103.1</v>
       </c>
-      <c r="N6">
+      <c r="N6" t="n">
         <v>95.09999999999999</v>
       </c>
-      <c r="O6">
+      <c r="O6" t="n">
         <v>105.2</v>
       </c>
-      <c r="P6">
+      <c r="P6" t="n">
         <v>102</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" t="n">
         <v>101.1</v>
       </c>
-      <c r="R6">
+      <c r="R6" t="n">
         <v>102.2</v>
       </c>
-      <c r="S6">
+      <c r="S6" t="n">
         <v>104.8</v>
       </c>
-      <c r="T6">
+      <c r="T6" t="n">
         <v>100.2</v>
       </c>
-      <c r="U6">
+      <c r="U6" t="n">
         <v>96.90000000000001</v>
       </c>
-      <c r="V6">
+      <c r="V6" t="n">
         <v>98.09999999999999</v>
       </c>
-      <c r="W6">
+      <c r="W6" t="n">
         <v>98.59999999999999</v>
       </c>
-      <c r="X6">
+      <c r="X6" t="n">
         <v>97.09999999999999</v>
       </c>
-      <c r="Y6">
+      <c r="Y6" t="n">
         <v>96.8</v>
       </c>
-      <c r="Z6">
+      <c r="Z6" t="n">
         <v>98.09999999999999</v>
       </c>
-      <c r="AA6">
+      <c r="AA6" t="n">
         <v>104.1</v>
       </c>
-      <c r="AB6">
+      <c r="AB6" t="n">
         <v>112</v>
       </c>
-      <c r="AC6">
+      <c r="AC6" t="n">
         <v>111.1</v>
       </c>
-      <c r="AD6">
+      <c r="AD6" t="n">
         <v>122.7</v>
       </c>
-      <c r="AE6">
+      <c r="AE6" t="n">
         <v>107.4</v>
       </c>
-      <c r="AF6">
+      <c r="AF6" t="n">
         <v>102.5</v>
       </c>
-      <c r="AG6">
+      <c r="AG6" t="n">
         <v>102.5</v>
       </c>
-      <c r="AH6">
+      <c r="AH6" t="n">
         <v>121.8</v>
       </c>
-      <c r="AI6">
+      <c r="AI6" t="n">
         <v>114.7</v>
       </c>
+      <c r="AJ6" t="inlineStr"/>
+      <c r="AK6" t="inlineStr"/>
+      <c r="AL6" t="inlineStr"/>
+      <c r="AM6" t="inlineStr"/>
+      <c r="AN6" t="inlineStr"/>
+      <c r="AO6" t="inlineStr"/>
+      <c r="AP6" t="inlineStr"/>
+      <c r="AQ6" t="inlineStr"/>
+      <c r="AR6" t="inlineStr"/>
+      <c r="AS6" t="inlineStr"/>
+      <c r="AT6" t="inlineStr"/>
+      <c r="AU6" t="inlineStr"/>
+      <c r="AV6" t="inlineStr"/>
+      <c r="AW6" t="inlineStr"/>
+      <c r="AX6" t="inlineStr"/>
+      <c r="AY6" t="inlineStr"/>
+      <c r="AZ6" t="inlineStr"/>
+      <c r="BA6" t="inlineStr"/>
+      <c r="BB6" t="inlineStr"/>
+      <c r="BC6" t="inlineStr"/>
+      <c r="BD6" t="inlineStr"/>
+      <c r="BE6" t="inlineStr"/>
+      <c r="BF6" t="inlineStr"/>
+      <c r="BG6" t="inlineStr"/>
+      <c r="BH6" t="inlineStr"/>
+      <c r="BI6" t="inlineStr"/>
+      <c r="BJ6" t="inlineStr"/>
+      <c r="BK6" t="inlineStr"/>
+      <c r="BL6" t="inlineStr"/>
+      <c r="BM6" t="inlineStr"/>
+      <c r="BN6" t="inlineStr"/>
+      <c r="BO6" t="inlineStr"/>
+      <c r="BP6" t="inlineStr"/>
+      <c r="BQ6" t="inlineStr"/>
+      <c r="BR6" t="inlineStr"/>
+      <c r="BS6" t="inlineStr"/>
+      <c r="BT6" t="inlineStr"/>
+      <c r="BU6" t="inlineStr"/>
+      <c r="BV6" t="inlineStr"/>
     </row>
-    <row r="7" spans="1:74">
-      <c r="A7" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C7">
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Producer Price Indices for Industrial Products (preceding year=100), Consumer Goods</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="C7" t="n">
         <v>100.5</v>
       </c>
-      <c r="D7">
+      <c r="D7" t="n">
         <v>100.9</v>
       </c>
-      <c r="E7">
+      <c r="E7" t="n">
         <v>100.5</v>
       </c>
-      <c r="F7">
+      <c r="F7" t="n">
         <v>100.7</v>
       </c>
-      <c r="G7">
+      <c r="G7" t="n">
         <v>100</v>
       </c>
-      <c r="H7">
+      <c r="H7" t="n">
         <v>99.7</v>
       </c>
-      <c r="I7">
+      <c r="I7" t="n">
         <v>100</v>
       </c>
-      <c r="J7">
+      <c r="J7" t="n">
         <v>100.2</v>
       </c>
-      <c r="K7">
+      <c r="K7" t="n">
         <v>100.8</v>
       </c>
-      <c r="L7">
+      <c r="L7" t="n">
         <v>104.2</v>
       </c>
-      <c r="M7">
+      <c r="M7" t="n">
         <v>102</v>
       </c>
-      <c r="N7">
+      <c r="N7" t="n">
         <v>98.8</v>
       </c>
-      <c r="O7">
+      <c r="O7" t="n">
         <v>104.1</v>
       </c>
-      <c r="P7">
+      <c r="P7" t="n">
         <v>102.8</v>
       </c>
-      <c r="Q7">
+      <c r="Q7" t="n">
         <v>100.2</v>
       </c>
-      <c r="R7">
+      <c r="R7" t="n">
         <v>99.8</v>
       </c>
-      <c r="S7">
+      <c r="S7" t="n">
         <v>101.2</v>
       </c>
-      <c r="T7">
+      <c r="T7" t="n">
         <v>98.90000000000001</v>
       </c>
-      <c r="U7">
+      <c r="U7" t="n">
         <v>97.90000000000001</v>
       </c>
-      <c r="V7">
+      <c r="V7" t="n">
         <v>98.5</v>
       </c>
-      <c r="W7">
+      <c r="W7" t="n">
         <v>97.8</v>
       </c>
-      <c r="X7">
+      <c r="X7" t="n">
         <v>96.40000000000001</v>
       </c>
-      <c r="Y7">
+      <c r="Y7" t="n">
         <v>96.90000000000001</v>
       </c>
-      <c r="Z7">
+      <c r="Z7" t="n">
         <v>99.59999999999999</v>
       </c>
-      <c r="AA7">
+      <c r="AA7" t="n">
         <v>102.1</v>
       </c>
-      <c r="AB7">
+      <c r="AB7" t="n">
         <v>116.9</v>
       </c>
-      <c r="AC7">
+      <c r="AC7" t="n">
         <v>123.8</v>
       </c>
-      <c r="AD7">
+      <c r="AD7" t="n">
         <v>109.6</v>
       </c>
-      <c r="AE7">
+      <c r="AE7" t="n">
         <v>103.2</v>
       </c>
-      <c r="AF7">
+      <c r="AF7" t="n">
         <v>103.6</v>
       </c>
-      <c r="AG7">
+      <c r="AG7" t="n">
         <v>103.6</v>
       </c>
-      <c r="AH7">
+      <c r="AH7" t="n">
         <v>118.2</v>
       </c>
-      <c r="AI7">
+      <c r="AI7" t="n">
         <v>117.2</v>
       </c>
+      <c r="AJ7" t="inlineStr"/>
+      <c r="AK7" t="inlineStr"/>
+      <c r="AL7" t="inlineStr"/>
+      <c r="AM7" t="inlineStr"/>
+      <c r="AN7" t="inlineStr"/>
+      <c r="AO7" t="inlineStr"/>
+      <c r="AP7" t="inlineStr"/>
+      <c r="AQ7" t="inlineStr"/>
+      <c r="AR7" t="inlineStr"/>
+      <c r="AS7" t="inlineStr"/>
+      <c r="AT7" t="inlineStr"/>
+      <c r="AU7" t="inlineStr"/>
+      <c r="AV7" t="inlineStr"/>
+      <c r="AW7" t="inlineStr"/>
+      <c r="AX7" t="inlineStr"/>
+      <c r="AY7" t="inlineStr"/>
+      <c r="AZ7" t="inlineStr"/>
+      <c r="BA7" t="inlineStr"/>
+      <c r="BB7" t="inlineStr"/>
+      <c r="BC7" t="inlineStr"/>
+      <c r="BD7" t="inlineStr"/>
+      <c r="BE7" t="inlineStr"/>
+      <c r="BF7" t="inlineStr"/>
+      <c r="BG7" t="inlineStr"/>
+      <c r="BH7" t="inlineStr"/>
+      <c r="BI7" t="inlineStr"/>
+      <c r="BJ7" t="inlineStr"/>
+      <c r="BK7" t="inlineStr"/>
+      <c r="BL7" t="inlineStr"/>
+      <c r="BM7" t="inlineStr"/>
+      <c r="BN7" t="inlineStr"/>
+      <c r="BO7" t="inlineStr"/>
+      <c r="BP7" t="inlineStr"/>
+      <c r="BQ7" t="inlineStr"/>
+      <c r="BR7" t="inlineStr"/>
+      <c r="BS7" t="inlineStr"/>
+      <c r="BT7" t="inlineStr"/>
+      <c r="BU7" t="inlineStr"/>
+      <c r="BV7" t="inlineStr"/>
     </row>
-    <row r="8" spans="1:74">
-      <c r="A8" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C8">
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Producer Price Indices for Industrial Products (preceding year=100), Food</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>101.4</v>
+      </c>
+      <c r="C8" t="n">
         <v>102.9</v>
       </c>
-      <c r="D8">
+      <c r="D8" t="n">
         <v>102.7</v>
       </c>
-      <c r="E8">
+      <c r="E8" t="n">
         <v>100.5</v>
       </c>
-      <c r="F8">
+      <c r="F8" t="n">
         <v>100.6</v>
       </c>
-      <c r="G8">
+      <c r="G8" t="n">
         <v>100.6</v>
       </c>
-      <c r="H8">
+      <c r="H8" t="n">
         <v>100</v>
       </c>
-      <c r="I8">
+      <c r="I8" t="n">
         <v>100.2</v>
       </c>
-      <c r="J8">
+      <c r="J8" t="n">
         <v>100.7</v>
       </c>
-      <c r="K8">
+      <c r="K8" t="n">
         <v>101.4</v>
       </c>
-      <c r="L8">
+      <c r="L8" t="n">
         <v>107.4</v>
       </c>
-      <c r="M8">
+      <c r="M8" t="n">
         <v>103.8</v>
       </c>
-      <c r="N8">
+      <c r="N8" t="n">
         <v>98.59999999999999</v>
       </c>
-      <c r="O8">
+      <c r="O8" t="n">
         <v>108.3</v>
       </c>
-      <c r="P8">
+      <c r="P8" t="n">
         <v>107</v>
       </c>
-      <c r="Q8">
+      <c r="Q8" t="n">
         <v>100.5</v>
       </c>
-      <c r="R8">
+      <c r="R8" t="n">
         <v>100.9</v>
       </c>
-      <c r="S8">
+      <c r="S8" t="n">
         <v>105.2</v>
       </c>
-      <c r="T8">
+      <c r="T8" t="n">
         <v>100.9</v>
       </c>
-      <c r="U8">
+      <c r="U8" t="n">
         <v>99.7</v>
       </c>
-      <c r="V8">
+      <c r="V8" t="n">
         <v>100.5</v>
       </c>
-      <c r="W8">
+      <c r="W8" t="n">
         <v>96</v>
       </c>
-      <c r="X8">
+      <c r="X8" t="n">
         <v>97.40000000000001</v>
       </c>
-      <c r="Y8">
+      <c r="Y8" t="n">
         <v>98.90000000000001</v>
       </c>
-      <c r="Z8">
+      <c r="Z8" t="n">
         <v>100.8</v>
       </c>
-      <c r="AA8">
+      <c r="AA8" t="n">
         <v>104.7</v>
       </c>
-      <c r="AB8">
+      <c r="AB8" t="n">
         <v>123.2</v>
       </c>
-      <c r="AC8">
+      <c r="AC8" t="n">
         <v>123.4</v>
       </c>
-      <c r="AD8">
+      <c r="AD8" t="n">
         <v>113.9</v>
       </c>
-      <c r="AE8">
+      <c r="AE8" t="n">
         <v>106.4</v>
       </c>
-      <c r="AF8">
+      <c r="AF8" t="n">
         <v>101.3</v>
       </c>
-      <c r="AG8">
+      <c r="AG8" t="n">
         <v>101.3</v>
       </c>
-      <c r="AH8">
+      <c r="AH8" t="n">
         <v>114.1</v>
       </c>
-      <c r="AI8">
+      <c r="AI8" t="n">
         <v>116.2</v>
       </c>
+      <c r="AJ8" t="inlineStr"/>
+      <c r="AK8" t="inlineStr"/>
+      <c r="AL8" t="inlineStr"/>
+      <c r="AM8" t="inlineStr"/>
+      <c r="AN8" t="inlineStr"/>
+      <c r="AO8" t="inlineStr"/>
+      <c r="AP8" t="inlineStr"/>
+      <c r="AQ8" t="inlineStr"/>
+      <c r="AR8" t="inlineStr"/>
+      <c r="AS8" t="inlineStr"/>
+      <c r="AT8" t="inlineStr"/>
+      <c r="AU8" t="inlineStr"/>
+      <c r="AV8" t="inlineStr"/>
+      <c r="AW8" t="inlineStr"/>
+      <c r="AX8" t="inlineStr"/>
+      <c r="AY8" t="inlineStr"/>
+      <c r="AZ8" t="inlineStr"/>
+      <c r="BA8" t="inlineStr"/>
+      <c r="BB8" t="inlineStr"/>
+      <c r="BC8" t="inlineStr"/>
+      <c r="BD8" t="inlineStr"/>
+      <c r="BE8" t="inlineStr"/>
+      <c r="BF8" t="inlineStr"/>
+      <c r="BG8" t="inlineStr"/>
+      <c r="BH8" t="inlineStr"/>
+      <c r="BI8" t="inlineStr"/>
+      <c r="BJ8" t="inlineStr"/>
+      <c r="BK8" t="inlineStr"/>
+      <c r="BL8" t="inlineStr"/>
+      <c r="BM8" t="inlineStr"/>
+      <c r="BN8" t="inlineStr"/>
+      <c r="BO8" t="inlineStr"/>
+      <c r="BP8" t="inlineStr"/>
+      <c r="BQ8" t="inlineStr"/>
+      <c r="BR8" t="inlineStr"/>
+      <c r="BS8" t="inlineStr"/>
+      <c r="BT8" t="inlineStr"/>
+      <c r="BU8" t="inlineStr"/>
+      <c r="BV8" t="inlineStr"/>
     </row>
-    <row r="9" spans="1:74">
-      <c r="A9" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C9">
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Producer Price Indices for Industrial Products (preceding year=100), Clothing</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="C9" t="n">
         <v>99</v>
       </c>
-      <c r="D9">
+      <c r="D9" t="n">
         <v>101.1</v>
       </c>
-      <c r="E9">
+      <c r="E9" t="n">
         <v>100.8</v>
       </c>
-      <c r="F9">
+      <c r="F9" t="n">
         <v>101.2</v>
       </c>
-      <c r="G9">
+      <c r="G9" t="n">
         <v>100.9</v>
       </c>
-      <c r="H9">
+      <c r="H9" t="n">
         <v>100.7</v>
       </c>
-      <c r="I9">
+      <c r="I9" t="n">
         <v>100.7</v>
       </c>
-      <c r="J9">
+      <c r="J9" t="n">
         <v>101.2</v>
       </c>
-      <c r="K9">
+      <c r="K9" t="n">
         <v>102.1</v>
       </c>
-      <c r="L9">
+      <c r="L9" t="n">
         <v>104.2</v>
       </c>
-      <c r="M9">
+      <c r="M9" t="n">
         <v>102</v>
       </c>
-      <c r="N9">
+      <c r="N9" t="n">
         <v>100.1</v>
       </c>
-      <c r="O9">
+      <c r="O9" t="n">
         <v>102.2</v>
       </c>
-      <c r="P9">
+      <c r="P9" t="n">
         <v>101.2</v>
       </c>
-      <c r="Q9">
+      <c r="Q9" t="n">
         <v>101.3</v>
       </c>
-      <c r="R9">
+      <c r="R9" t="n">
         <v>100.8</v>
       </c>
-      <c r="S9">
+      <c r="S9" t="n">
         <v>100.9</v>
       </c>
-      <c r="T9">
+      <c r="T9" t="n">
         <v>99.8</v>
       </c>
-      <c r="U9">
+      <c r="U9" t="n">
         <v>98.8</v>
       </c>
-      <c r="V9">
+      <c r="V9" t="n">
         <v>99</v>
       </c>
-      <c r="W9">
+      <c r="W9" t="n">
         <v>100.6</v>
       </c>
-      <c r="X9">
+      <c r="X9" t="n">
         <v>96.09999999999999</v>
       </c>
-      <c r="Y9">
+      <c r="Y9" t="n">
         <v>96.2</v>
       </c>
-      <c r="Z9">
+      <c r="Z9" t="n">
         <v>101.1</v>
       </c>
-      <c r="AA9">
+      <c r="AA9" t="n">
         <v>100.5</v>
       </c>
-      <c r="AB9">
+      <c r="AB9" t="n">
         <v>115.6</v>
       </c>
-      <c r="AC9">
+      <c r="AC9" t="n">
         <v>136.4</v>
       </c>
-      <c r="AD9">
+      <c r="AD9" t="n">
         <v>106.2</v>
       </c>
-      <c r="AE9">
+      <c r="AE9" t="n">
         <v>100.8</v>
       </c>
-      <c r="AF9">
+      <c r="AF9" t="n">
         <v>107.3</v>
       </c>
-      <c r="AG9">
+      <c r="AG9" t="n">
         <v>107.3</v>
       </c>
-      <c r="AH9">
+      <c r="AH9" t="n">
         <v>121.4</v>
       </c>
-      <c r="AI9">
+      <c r="AI9" t="n">
         <v>120.3</v>
       </c>
+      <c r="AJ9" t="inlineStr"/>
+      <c r="AK9" t="inlineStr"/>
+      <c r="AL9" t="inlineStr"/>
+      <c r="AM9" t="inlineStr"/>
+      <c r="AN9" t="inlineStr"/>
+      <c r="AO9" t="inlineStr"/>
+      <c r="AP9" t="inlineStr"/>
+      <c r="AQ9" t="inlineStr"/>
+      <c r="AR9" t="inlineStr"/>
+      <c r="AS9" t="inlineStr"/>
+      <c r="AT9" t="inlineStr"/>
+      <c r="AU9" t="inlineStr"/>
+      <c r="AV9" t="inlineStr"/>
+      <c r="AW9" t="inlineStr"/>
+      <c r="AX9" t="inlineStr"/>
+      <c r="AY9" t="inlineStr"/>
+      <c r="AZ9" t="inlineStr"/>
+      <c r="BA9" t="inlineStr"/>
+      <c r="BB9" t="inlineStr"/>
+      <c r="BC9" t="inlineStr"/>
+      <c r="BD9" t="inlineStr"/>
+      <c r="BE9" t="inlineStr"/>
+      <c r="BF9" t="inlineStr"/>
+      <c r="BG9" t="inlineStr"/>
+      <c r="BH9" t="inlineStr"/>
+      <c r="BI9" t="inlineStr"/>
+      <c r="BJ9" t="inlineStr"/>
+      <c r="BK9" t="inlineStr"/>
+      <c r="BL9" t="inlineStr"/>
+      <c r="BM9" t="inlineStr"/>
+      <c r="BN9" t="inlineStr"/>
+      <c r="BO9" t="inlineStr"/>
+      <c r="BP9" t="inlineStr"/>
+      <c r="BQ9" t="inlineStr"/>
+      <c r="BR9" t="inlineStr"/>
+      <c r="BS9" t="inlineStr"/>
+      <c r="BT9" t="inlineStr"/>
+      <c r="BU9" t="inlineStr"/>
+      <c r="BV9" t="inlineStr"/>
     </row>
-    <row r="10" spans="1:74">
-      <c r="A10" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C10">
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Producer Price Indices for Industrial Products (preceding year=100), Articles for Daily Use</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="C10" t="n">
         <v>99.7</v>
       </c>
-      <c r="D10">
+      <c r="D10" t="n">
         <v>100.4</v>
       </c>
-      <c r="E10">
+      <c r="E10" t="n">
         <v>101</v>
       </c>
-      <c r="F10">
+      <c r="F10" t="n">
         <v>101.3</v>
       </c>
-      <c r="G10">
+      <c r="G10" t="n">
         <v>100</v>
       </c>
-      <c r="H10">
+      <c r="H10" t="n">
         <v>99.3</v>
       </c>
-      <c r="I10">
+      <c r="I10" t="n">
         <v>100.1</v>
       </c>
-      <c r="J10">
+      <c r="J10" t="n">
         <v>99.8</v>
       </c>
-      <c r="K10">
+      <c r="K10" t="n">
         <v>100.9</v>
       </c>
-      <c r="L10">
+      <c r="L10" t="n">
         <v>104</v>
       </c>
-      <c r="M10">
+      <c r="M10" t="n">
         <v>101.9</v>
       </c>
-      <c r="N10">
+      <c r="N10" t="n">
         <v>99.2</v>
       </c>
-      <c r="O10">
+      <c r="O10" t="n">
         <v>103.6</v>
       </c>
-      <c r="P10">
+      <c r="P10" t="n">
         <v>101.5</v>
       </c>
-      <c r="Q10">
+      <c r="Q10" t="n">
         <v>100.8</v>
       </c>
-      <c r="R10">
+      <c r="R10" t="n">
         <v>101.9</v>
       </c>
-      <c r="S10">
+      <c r="S10" t="n">
         <v>101.9</v>
       </c>
-      <c r="T10">
+      <c r="T10" t="n">
         <v>99.5</v>
       </c>
-      <c r="U10">
+      <c r="U10" t="n">
         <v>97.90000000000001</v>
       </c>
-      <c r="V10">
+      <c r="V10" t="n">
         <v>98.3</v>
       </c>
-      <c r="W10">
+      <c r="W10" t="n">
         <v>98</v>
       </c>
-      <c r="X10">
+      <c r="X10" t="n">
         <v>96</v>
       </c>
-      <c r="Y10">
+      <c r="Y10" t="n">
         <v>96.7</v>
       </c>
-      <c r="Z10">
+      <c r="Z10" t="n">
         <v>98.3</v>
       </c>
-      <c r="AA10">
+      <c r="AA10" t="n">
         <v>102.9</v>
       </c>
-      <c r="AB10">
+      <c r="AB10" t="n">
         <v>115.1</v>
       </c>
-      <c r="AC10">
+      <c r="AC10" t="n">
         <v>112.3</v>
       </c>
-      <c r="AD10">
+      <c r="AD10" t="n">
         <v>108.9</v>
       </c>
-      <c r="AE10">
+      <c r="AE10" t="n">
         <v>102.8</v>
       </c>
-      <c r="AF10">
+      <c r="AF10" t="n">
         <v>103</v>
       </c>
-      <c r="AG10">
+      <c r="AG10" t="n">
         <v>103</v>
       </c>
-      <c r="AH10">
+      <c r="AH10" t="n">
         <v>121.5</v>
       </c>
-      <c r="AI10">
+      <c r="AI10" t="n">
         <v>120.4</v>
       </c>
+      <c r="AJ10" t="inlineStr"/>
+      <c r="AK10" t="inlineStr"/>
+      <c r="AL10" t="inlineStr"/>
+      <c r="AM10" t="inlineStr"/>
+      <c r="AN10" t="inlineStr"/>
+      <c r="AO10" t="inlineStr"/>
+      <c r="AP10" t="inlineStr"/>
+      <c r="AQ10" t="inlineStr"/>
+      <c r="AR10" t="inlineStr"/>
+      <c r="AS10" t="inlineStr"/>
+      <c r="AT10" t="inlineStr"/>
+      <c r="AU10" t="inlineStr"/>
+      <c r="AV10" t="inlineStr"/>
+      <c r="AW10" t="inlineStr"/>
+      <c r="AX10" t="inlineStr"/>
+      <c r="AY10" t="inlineStr"/>
+      <c r="AZ10" t="inlineStr"/>
+      <c r="BA10" t="inlineStr"/>
+      <c r="BB10" t="inlineStr"/>
+      <c r="BC10" t="inlineStr"/>
+      <c r="BD10" t="inlineStr"/>
+      <c r="BE10" t="inlineStr"/>
+      <c r="BF10" t="inlineStr"/>
+      <c r="BG10" t="inlineStr"/>
+      <c r="BH10" t="inlineStr"/>
+      <c r="BI10" t="inlineStr"/>
+      <c r="BJ10" t="inlineStr"/>
+      <c r="BK10" t="inlineStr"/>
+      <c r="BL10" t="inlineStr"/>
+      <c r="BM10" t="inlineStr"/>
+      <c r="BN10" t="inlineStr"/>
+      <c r="BO10" t="inlineStr"/>
+      <c r="BP10" t="inlineStr"/>
+      <c r="BQ10" t="inlineStr"/>
+      <c r="BR10" t="inlineStr"/>
+      <c r="BS10" t="inlineStr"/>
+      <c r="BT10" t="inlineStr"/>
+      <c r="BU10" t="inlineStr"/>
+      <c r="BV10" t="inlineStr"/>
     </row>
-    <row r="11" spans="1:74">
-      <c r="A11" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C11">
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Producer Price Indices for Industrial Products (preceding year=100), Durable Consumer Goods</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="C11" t="n">
         <v>98.2</v>
       </c>
-      <c r="D11">
+      <c r="D11" t="n">
         <v>98.8</v>
       </c>
-      <c r="E11">
+      <c r="E11" t="n">
         <v>99.8</v>
       </c>
-      <c r="F11">
+      <c r="F11" t="n">
         <v>99.90000000000001</v>
       </c>
-      <c r="G11">
+      <c r="G11" t="n">
         <v>98.5</v>
       </c>
-      <c r="H11">
+      <c r="H11" t="n">
         <v>99.2</v>
       </c>
-      <c r="I11">
+      <c r="I11" t="n">
         <v>99.2</v>
       </c>
-      <c r="J11">
+      <c r="J11" t="n">
         <v>99.09999999999999</v>
       </c>
-      <c r="K11">
+      <c r="K11" t="n">
         <v>99.09999999999999</v>
       </c>
-      <c r="L11">
+      <c r="L11" t="n">
         <v>99.40000000000001</v>
       </c>
-      <c r="M11">
+      <c r="M11" t="n">
         <v>99.40000000000001</v>
       </c>
-      <c r="N11">
+      <c r="N11" t="n">
         <v>97.7</v>
       </c>
-      <c r="O11">
+      <c r="O11" t="n">
         <v>99.5</v>
       </c>
-      <c r="P11">
+      <c r="P11" t="n">
         <v>99</v>
       </c>
-      <c r="Q11">
+      <c r="Q11" t="n">
         <v>98</v>
       </c>
-      <c r="R11">
+      <c r="R11" t="n">
         <v>96.8</v>
       </c>
-      <c r="S11">
+      <c r="S11" t="n">
         <v>96.2</v>
       </c>
-      <c r="T11">
+      <c r="T11" t="n">
         <v>95.59999999999999</v>
       </c>
-      <c r="U11">
+      <c r="U11" t="n">
         <v>94.7</v>
       </c>
-      <c r="V11">
+      <c r="V11" t="n">
         <v>95.3</v>
       </c>
-      <c r="W11">
+      <c r="W11" t="n">
         <v>96.40000000000001</v>
       </c>
-      <c r="X11">
+      <c r="X11" t="n">
         <v>95.59999999999999</v>
       </c>
-      <c r="Y11">
+      <c r="Y11" t="n">
         <v>94</v>
       </c>
-      <c r="Z11">
+      <c r="Z11" t="n">
         <v>94.90000000000001</v>
       </c>
-      <c r="AA11">
+      <c r="AA11" t="n">
         <v>97.7</v>
       </c>
-      <c r="AB11">
+      <c r="AB11" t="n">
         <v>105.4</v>
       </c>
-      <c r="AC11">
+      <c r="AC11" t="n">
         <v>108.4</v>
       </c>
-      <c r="AD11">
+      <c r="AD11" t="n">
         <v>108.8</v>
       </c>
-      <c r="AE11">
+      <c r="AE11" t="n">
         <v>101.7</v>
       </c>
-      <c r="AF11">
+      <c r="AF11" t="n">
         <v>99.3</v>
       </c>
-      <c r="AG11">
+      <c r="AG11" t="n">
         <v>99.3</v>
       </c>
-      <c r="AH11">
+      <c r="AH11" t="n">
         <v>113.8</v>
       </c>
-      <c r="AI11">
+      <c r="AI11" t="n">
         <v>106</v>
       </c>
+      <c r="AJ11" t="inlineStr"/>
+      <c r="AK11" t="inlineStr"/>
+      <c r="AL11" t="inlineStr"/>
+      <c r="AM11" t="inlineStr"/>
+      <c r="AN11" t="inlineStr"/>
+      <c r="AO11" t="inlineStr"/>
+      <c r="AP11" t="inlineStr"/>
+      <c r="AQ11" t="inlineStr"/>
+      <c r="AR11" t="inlineStr"/>
+      <c r="AS11" t="inlineStr"/>
+      <c r="AT11" t="inlineStr"/>
+      <c r="AU11" t="inlineStr"/>
+      <c r="AV11" t="inlineStr"/>
+      <c r="AW11" t="inlineStr"/>
+      <c r="AX11" t="inlineStr"/>
+      <c r="AY11" t="inlineStr"/>
+      <c r="AZ11" t="inlineStr"/>
+      <c r="BA11" t="inlineStr"/>
+      <c r="BB11" t="inlineStr"/>
+      <c r="BC11" t="inlineStr"/>
+      <c r="BD11" t="inlineStr"/>
+      <c r="BE11" t="inlineStr"/>
+      <c r="BF11" t="inlineStr"/>
+      <c r="BG11" t="inlineStr"/>
+      <c r="BH11" t="inlineStr"/>
+      <c r="BI11" t="inlineStr"/>
+      <c r="BJ11" t="inlineStr"/>
+      <c r="BK11" t="inlineStr"/>
+      <c r="BL11" t="inlineStr"/>
+      <c r="BM11" t="inlineStr"/>
+      <c r="BN11" t="inlineStr"/>
+      <c r="BO11" t="inlineStr"/>
+      <c r="BP11" t="inlineStr"/>
+      <c r="BQ11" t="inlineStr"/>
+      <c r="BR11" t="inlineStr"/>
+      <c r="BS11" t="inlineStr"/>
+      <c r="BT11" t="inlineStr"/>
+      <c r="BU11" t="inlineStr"/>
+      <c r="BV11" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>